--- a/Evidencias/FASE 3 - Entrega final/Analisis de riesgos diseño 2.xlsx
+++ b/Evidencias/FASE 3 - Entrega final/Analisis de riesgos diseño 2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cef99c0cd69485d6/Documentos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/32512eb102156701/Documentos/GitHub/Proyecto-DB2-2025-2-G4/Evidencias/FASE 3 - Entrega final/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{B61A562F-82FE-49D1-8369-F238FDE59318}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="14_{B61A562F-82FE-49D1-8369-F238FDE59318}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1AE8554C-B627-4B53-8966-97FF401E5AD4}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{0F546C25-3824-4C35-9AB2-DAD9B89D3A09}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{0F546C25-3824-4C35-9AB2-DAD9B89D3A09}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -385,18 +385,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -735,23 +729,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9D46722-B496-4D08-8218-EBDC4D064E39}">
   <dimension ref="B2:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="72" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="30.85546875" customWidth="1"/>
+    <col min="2" max="2" width="30.88671875" customWidth="1"/>
     <col min="3" max="3" width="29" customWidth="1"/>
-    <col min="4" max="4" width="24.5703125" customWidth="1"/>
-    <col min="5" max="5" width="22.85546875" customWidth="1"/>
+    <col min="4" max="4" width="24.5546875" customWidth="1"/>
+    <col min="5" max="5" width="22.88671875" customWidth="1"/>
     <col min="6" max="7" width="23" customWidth="1"/>
-    <col min="8" max="8" width="25.28515625" customWidth="1"/>
-    <col min="9" max="9" width="24.28515625" customWidth="1"/>
-    <col min="10" max="11" width="22.85546875" customWidth="1"/>
+    <col min="8" max="8" width="25.33203125" customWidth="1"/>
+    <col min="9" max="9" width="24.33203125" customWidth="1"/>
+    <col min="10" max="11" width="22.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -761,26 +755,26 @@
       <c r="D2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="2:10" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:10" ht="81.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -793,23 +787,23 @@
       <c r="E3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="2:10" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
@@ -822,23 +816,23 @@
       <c r="E4" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="2" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="5" spans="2:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
@@ -851,23 +845,23 @@
       <c r="E5" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="J5" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="2:10" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" ht="84" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
@@ -880,23 +874,23 @@
       <c r="E6" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I6" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="J6" s="2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" ht="49.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
@@ -909,23 +903,23 @@
       <c r="E7" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="I7" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="J7" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="2:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
@@ -938,23 +932,23 @@
       <c r="E8" s="2">
         <v>12</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="2">
         <v>30</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="2">
         <v>6</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="2">
         <v>30</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="2">
         <v>50</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8" s="2">
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="2:10" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:10" ht="108.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
@@ -967,23 +961,23 @@
       <c r="E9" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="H9" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="I9" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="J9" s="4" t="s">
+      <c r="J9" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="10" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
@@ -996,23 +990,23 @@
       <c r="E10" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="H10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I10" s="4" t="s">
+      <c r="I10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J10" s="4" t="s">
+      <c r="J10" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="2:10" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10" ht="104.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
         <v>9</v>
       </c>
@@ -1025,23 +1019,23 @@
       <c r="E11" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="G11" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="H11" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="I11" s="4" t="s">
+      <c r="I11" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="J11" s="4" t="s">
+      <c r="J11" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="12" spans="2:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
         <v>10</v>
       </c>
@@ -1054,23 +1048,23 @@
       <c r="E12" s="2">
         <v>1</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G12" s="2">
         <v>1</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="H12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I12" s="4" t="s">
+      <c r="I12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J12" s="4" t="s">
+      <c r="J12" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="2:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
         <v>11</v>
       </c>
@@ -1083,23 +1077,23 @@
       <c r="E13" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="G13" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="H13" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="I13" s="4" t="s">
+      <c r="I13" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="J13" s="4" t="s">
+      <c r="J13" s="2" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="14" spans="2:10" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:10" ht="126.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
         <v>12</v>
       </c>
@@ -1112,23 +1106,23 @@
       <c r="E14" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="G14" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="H14" s="4" t="s">
+      <c r="H14" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="I14" s="4" t="s">
+      <c r="I14" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="J14" s="4" t="s">
+      <c r="J14" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="15" spans="2:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
         <v>13</v>
       </c>
@@ -1144,16 +1138,16 @@
       <c r="F15" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="G15" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H15" s="4" t="s">
+      <c r="H15" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="I15" s="4" t="s">
+      <c r="I15" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="J15" s="4" t="s">
+      <c r="J15" s="2" t="s">
         <v>80</v>
       </c>
     </row>
